--- a/results/pvalue_OFFSIDES_rare_transporter_AUPRperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_transporter_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.775</t>
+          <t>0.348</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.644</t>
+          <t>0.278</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.707</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.171</t>
+          <t>3.315</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.305</t>
+          <t>1.062</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.498</t>
+          <t>1.255</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.185</t>
+          <t>11.728</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
